--- a/Data/Data Demo.xlsx
+++ b/Data/Data Demo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="WFO-Data-Input" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd&quot; (&quot;[$-804]aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +227,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -483,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,10 +816,10 @@
         <v>467</v>
       </c>
       <c r="D17" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E17" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -789,10 +833,10 @@
         <v>255</v>
       </c>
       <c r="D18" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E18" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -806,10 +850,10 @@
         <v>334</v>
       </c>
       <c r="D19" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E19" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -823,10 +867,10 @@
         <v>193</v>
       </c>
       <c r="D20" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -840,10 +884,10 @@
         <v>120</v>
       </c>
       <c r="D21" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E21" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -857,10 +901,10 @@
         <v>329</v>
       </c>
       <c r="D22" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -874,10 +918,10 @@
         <v>493</v>
       </c>
       <c r="D23" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -891,10 +935,10 @@
         <v>285</v>
       </c>
       <c r="D24" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -908,10 +952,10 @@
         <v>520</v>
       </c>
       <c r="D25" s="6">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E25" s="6">
-        <v>4000</v>
+        <v>7000</v>
       </c>
     </row>
   </sheetData>
@@ -1806,439 +1850,443 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="12"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>42736</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13">
         <v>21</v>
       </c>
-      <c r="D2" s="7">
-        <v>100</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="11">
+        <v>100</v>
+      </c>
+      <c r="E2" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>42736</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
         <v>23</v>
       </c>
-      <c r="D3" s="7">
-        <v>100</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="11">
+        <v>100</v>
+      </c>
+      <c r="E3" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>42736</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13">
         <v>41</v>
       </c>
-      <c r="D4" s="7">
-        <v>100</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="11">
+        <v>100</v>
+      </c>
+      <c r="E4" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>42767</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13">
         <v>28</v>
       </c>
-      <c r="D5" s="7">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="11">
+        <v>100</v>
+      </c>
+      <c r="E5" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>42767</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="13">
         <v>67</v>
       </c>
-      <c r="D6" s="7">
-        <v>100</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="11">
+        <v>100</v>
+      </c>
+      <c r="E6" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>42767</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13">
         <v>43</v>
       </c>
-      <c r="D7" s="7">
-        <v>100</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="11">
+        <v>100</v>
+      </c>
+      <c r="E7" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>42795</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
         <v>44</v>
       </c>
-      <c r="D8" s="7">
-        <v>100</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="11">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>42795</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
         <v>49</v>
       </c>
-      <c r="D9" s="7">
-        <v>100</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="11">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>42795</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
         <v>61</v>
       </c>
-      <c r="D10" s="7">
-        <v>100</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="11">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>42826</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="13">
         <v>47</v>
       </c>
-      <c r="D11" s="7">
-        <v>100</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="11">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>42826</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="13">
         <v>63</v>
       </c>
-      <c r="D12" s="7">
-        <v>100</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="11">
+        <v>100</v>
+      </c>
+      <c r="E12" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>42826</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="13">
         <v>59</v>
       </c>
-      <c r="D13" s="7">
-        <v>100</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="11">
+        <v>100</v>
+      </c>
+      <c r="E13" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>42856</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="13">
         <v>68</v>
       </c>
-      <c r="D14" s="7">
-        <v>100</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="11">
+        <v>100</v>
+      </c>
+      <c r="E14" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>42856</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13">
         <v>30</v>
       </c>
-      <c r="D15" s="7">
-        <v>100</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="11">
+        <v>100</v>
+      </c>
+      <c r="E15" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>42856</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="13">
         <v>21</v>
       </c>
-      <c r="D16" s="7">
-        <v>100</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="11">
+        <v>100</v>
+      </c>
+      <c r="E16" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>42887</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="13">
         <v>79</v>
       </c>
-      <c r="D17" s="7">
-        <v>100</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="11">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>42887</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>25</v>
-      </c>
-      <c r="D18" s="7">
-        <v>100</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="13">
+        <v>25</v>
+      </c>
+      <c r="D18" s="11">
+        <v>100</v>
+      </c>
+      <c r="E18" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>42887</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="13">
         <v>34</v>
       </c>
-      <c r="D19" s="7">
-        <v>100</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="11">
+        <v>100</v>
+      </c>
+      <c r="E19" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>42917</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13">
         <v>22</v>
       </c>
-      <c r="D20" s="7">
-        <v>100</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="11">
+        <v>100</v>
+      </c>
+      <c r="E20" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>42917</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="13">
         <v>64</v>
       </c>
-      <c r="D21" s="7">
-        <v>100</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="11">
+        <v>100</v>
+      </c>
+      <c r="E21" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>42917</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13">
         <v>69</v>
       </c>
-      <c r="D22" s="7">
-        <v>100</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="11">
+        <v>100</v>
+      </c>
+      <c r="E22" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>42948</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="13">
         <v>59</v>
       </c>
-      <c r="D23" s="7">
-        <v>100</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="11">
+        <v>100</v>
+      </c>
+      <c r="E23" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>42948</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="13">
         <v>78</v>
       </c>
-      <c r="D24" s="7">
-        <v>100</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="11">
+        <v>100</v>
+      </c>
+      <c r="E24" s="11">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>42948</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="13">
         <v>62</v>
       </c>
-      <c r="D25" s="7">
-        <v>100</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="11">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11">
         <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Data Demo.xlsx
+++ b/Data/Data Demo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -97,6 +97,18 @@
     <t>Action</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -105,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd&quot; (&quot;[$-804]aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +195,34 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -216,14 +256,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,6 +277,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,439 +581,443 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="16"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="12">
         <v>42736</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17">
         <v>873</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="18">
         <v>3000</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <v>42736</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17">
         <v>1149</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="18">
         <v>3000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <v>42736</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="17">
         <v>474</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="18">
         <v>3000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="12">
         <v>42767</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17">
         <v>482</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="18">
         <v>3000</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <v>42767</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17">
         <v>463</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="18">
         <v>3000</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="12">
         <v>42767</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17">
         <v>187</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="18">
         <v>3000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="12">
         <v>42795</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="17">
         <v>218</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="18">
         <v>3000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="12">
         <v>42795</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17">
         <v>30</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="18">
         <v>3000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <v>42795</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17">
         <v>449</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="18">
         <v>3000</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="12">
         <v>42826</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="17">
         <v>132</v>
       </c>
-      <c r="D11" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="D11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="12">
         <v>42826</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>150</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="B12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="17">
+        <v>150</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="12">
         <v>42826</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="17">
         <v>344</v>
       </c>
-      <c r="D13" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="D13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>42856</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17">
         <v>202</v>
       </c>
-      <c r="D14" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="12">
         <v>42856</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17">
         <v>86</v>
       </c>
-      <c r="D15" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="D15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="12">
         <v>42856</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5">
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="17">
         <v>94</v>
       </c>
-      <c r="D16" s="6">
-        <v>3000</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="D16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="18">
         <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="12">
         <v>42887</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="17">
         <v>467</v>
       </c>
-      <c r="D17" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>7000</v>
+      <c r="D17" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <v>42887</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="B18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="17">
         <v>255</v>
       </c>
-      <c r="D18" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>7000</v>
+      <c r="D18" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <v>42887</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
+      <c r="B19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="17">
         <v>334</v>
       </c>
-      <c r="D19" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>7000</v>
+      <c r="D19" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E19" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <v>42917</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="17">
         <v>193</v>
       </c>
-      <c r="D20" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E20" s="6">
-        <v>7000</v>
+      <c r="D20" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E20" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="12">
         <v>42917</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="17">
         <v>120</v>
       </c>
-      <c r="D21" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>7000</v>
+      <c r="D21" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E21" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <v>42917</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="17">
         <v>329</v>
       </c>
-      <c r="D22" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>7000</v>
+      <c r="D22" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <v>42948</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="17">
         <v>493</v>
       </c>
-      <c r="D23" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E23" s="6">
-        <v>7000</v>
+      <c r="D23" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E23" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <v>42948</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="17">
         <v>285</v>
       </c>
-      <c r="D24" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E24" s="6">
-        <v>7000</v>
+      <c r="D24" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="18">
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="12">
         <v>42948</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="17">
         <v>520</v>
       </c>
-      <c r="D25" s="6">
-        <v>4000</v>
-      </c>
-      <c r="E25" s="6">
-        <v>7000</v>
+      <c r="D25" s="18">
+        <v>3500</v>
+      </c>
+      <c r="E25" s="18">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -984,10 +1041,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -998,13 +1055,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1015,13 +1072,13 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1032,13 +1089,13 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="5">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1049,13 +1106,13 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1066,13 +1123,13 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
-        <v>20</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1083,13 +1140,13 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
-        <v>20</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="5">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1100,13 +1157,13 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
-        <v>20</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1117,13 +1174,13 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7">
-        <v>20</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1134,13 +1191,13 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>20</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="5">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1151,13 +1208,13 @@
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="5">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1168,13 +1225,13 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="5">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1185,13 +1242,13 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <v>20</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="5">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1202,13 +1259,13 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="5">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1219,13 +1276,13 @@
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7">
-        <v>20</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1236,13 +1293,13 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>20</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1253,13 +1310,13 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C17" s="4">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1270,13 +1327,13 @@
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
-        <v>20</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="5">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1287,13 +1344,13 @@
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>9</v>
       </c>
-      <c r="D19" s="7">
-        <v>20</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="5">
+        <v>20</v>
+      </c>
+      <c r="E19" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1304,13 +1361,13 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5">
-        <v>7</v>
-      </c>
-      <c r="D20" s="7">
-        <v>20</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1321,13 +1378,13 @@
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
-        <v>20</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1338,13 +1395,13 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>9</v>
       </c>
-      <c r="D22" s="7">
-        <v>20</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="5">
+        <v>20</v>
+      </c>
+      <c r="E22" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1355,13 +1412,13 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
-        <v>7</v>
-      </c>
-      <c r="D23" s="7">
-        <v>20</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="C23" s="4">
+        <v>7</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
+      <c r="E23" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1372,13 +1429,13 @@
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
-        <v>20</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="5">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1389,13 +1446,13 @@
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
-        <v>20</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="5">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5">
         <v>25</v>
       </c>
     </row>
@@ -1425,10 +1482,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1439,13 +1496,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>0.4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1456,13 +1513,13 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.123</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>0.4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1473,13 +1530,13 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.215</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>0.4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1490,13 +1547,13 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.249</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>0.4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1507,13 +1564,13 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>0.4</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1524,13 +1581,13 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0.4</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1541,13 +1598,13 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.123</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.4</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1558,13 +1615,13 @@
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0.4</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1575,13 +1632,13 @@
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0.4</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1592,13 +1649,13 @@
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.19800000000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0.4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1609,13 +1666,13 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>0.4</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1626,13 +1683,13 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.35799999999999998</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>0.4</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1643,13 +1700,13 @@
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>0.4</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1660,13 +1717,13 @@
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.13800000000000001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>0.4</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1677,13 +1734,13 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.32700000000000001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.4</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1694,13 +1751,13 @@
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>0.4</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1711,13 +1768,13 @@
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>0.4</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1728,13 +1785,13 @@
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>0.4</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1745,13 +1802,13 @@
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.125</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>0.4</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1762,13 +1819,13 @@
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.39600000000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.4</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1779,13 +1836,13 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.4</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1796,13 +1853,13 @@
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.4</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1813,13 +1870,13 @@
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.378</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.4</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1830,13 +1887,13 @@
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.38800000000000001</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.4</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -1856,431 +1913,431 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="12"/>
+    <col min="1" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>42736</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13">
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11">
         <v>21</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="9">
         <v>100</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>42736</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11">
         <v>23</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>100</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>42736</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
         <v>41</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>100</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>42767</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
         <v>28</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>100</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>42767</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
         <v>67</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>100</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>42767</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11">
         <v>43</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>100</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>42795</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
         <v>44</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>100</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>42795</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
         <v>49</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>100</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>42795</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <v>61</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>100</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>42826</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
         <v>47</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>100</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>42826</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11">
         <v>63</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="9">
         <v>100</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>42826</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11">
         <v>59</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="9">
         <v>100</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>42856</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11">
         <v>68</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>100</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>42856</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="11">
         <v>30</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>100</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>42856</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="B16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11">
         <v>21</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>100</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>42887</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11">
         <v>79</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>100</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>42887</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="13">
-        <v>25</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="B18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="11">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9">
         <v>100</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>42887</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="B19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11">
         <v>34</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>100</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>42917</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11">
         <v>22</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>100</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>42917</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="B21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="11">
         <v>64</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>100</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>42917</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="B22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11">
         <v>69</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>100</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>42948</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="13">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="11">
         <v>59</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>100</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>42948</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="13">
+      <c r="B24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11">
         <v>78</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>100</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>42948</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="13">
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="11">
         <v>62</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>100</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>150</v>
       </c>
     </row>
